--- a/doc/应用框架JAVA后端安全方案.xlsx
+++ b/doc/应用框架JAVA后端安全方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23010" windowHeight="12450"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="应用框架JAVA后端安全方案（未完待续）" sheetId="3" r:id="rId1"/>
@@ -278,10 +278,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -293,66 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,9 +323,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,7 +338,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +346,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,8 +399,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,7 +459,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,25 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,13 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,25 +597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,25 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,61 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,32 +734,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,11 +755,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,6 +796,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -813,21 +828,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -836,145 +836,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,8 +1091,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1102,7 +1102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="866775" y="495300"/>
-          <a:ext cx="11182350" cy="5267325"/>
+          <a:ext cx="11182350" cy="5382260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1133,9 +1133,8 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1242,55 +1241,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>RSA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>加解密：对入参（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>RequestBody</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>）和出参（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ResponseBody</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>）进行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>RSA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>解密，从实践中建议整体加密而非单独某些值加密，因为这样便于统一封装处理，减少对个别的处理</a:t>
+            <a:t>RSA加解密：对入参（RequestBody）和出参（ResponseBody）进行RSA加解密，从实践中建议整体加密而非单独某些值加密，因为这样便于统一封装处理，减少对个别的处理</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1310,49 +1261,31 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>、公钥加密</a:t>
+            <a:t>、公钥加密；</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>B</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>；</a:t>
+            <a:t>、私钥解密；</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>B</a:t>
+            <a:t>C</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>、私钥解密</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>；</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>、私钥签名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>；</a:t>
+            <a:t>、私钥签名；</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -1395,19 +1328,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>HTTPS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>证书访问</a:t>
+            <a:t>、HTTPS证书访问</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1453,79 +1374,195 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
+            <a:t>、IP限定（访问地点控制、访问次数限制等）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>四、数据安全</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、敏感数据（手机、身份证</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>替换）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、数据库主键</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自增</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>雪花算法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>][</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其它</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>、</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>IP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>限定（访问地点控制、访问次数限制等</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UUID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>等</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在较高安全性下推荐做法：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>①主键数字自增或数字非自增（如年月日时分秒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>分布式系统</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>分布式系统编号），给前端为加密的字符串，实体类将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Long</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>改为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>即可</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>②主键唯一不重复字符串（如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UUID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>或</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>年月日时分秒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>分布式系统</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>分布式系统编号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>）</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>四、数据安全</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、敏感数据（手机、身份证</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>替换</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、数据库主键</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>UUID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>等</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -3160,7 +3197,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/应用框架JAVA后端安全方案.xlsx
+++ b/doc/应用框架JAVA后端安全方案.xlsx
@@ -299,30 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -338,7 +314,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,6 +354,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,30 +384,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +398,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +414,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,13 +431,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,7 +459,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,31 +549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,25 +573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,31 +597,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,73 +627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,15 +731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -755,6 +746,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -766,15 +766,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,8 +788,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,6 +819,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -836,10 +836,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,133 +848,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,8 +1089,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>389890</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
@@ -1102,7 +1102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="866775" y="495300"/>
-          <a:ext cx="11182350" cy="5382260"/>
+          <a:ext cx="11867515" cy="5382260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,40 +1421,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>数字</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>自增</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>][</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>雪花算法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>][</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>其它</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>非高并发、非大数据量、非经常用到主键索引、非主键排序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>等情况下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>使用字符串型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>且字符串采用</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -1462,7 +1442,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>等</a:t>
+            <a:t>或使用数字型且数字自增即可</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -1470,31 +1450,47 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>在较高安全性下推荐做法：</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>①主键数字自增或数字非自增（如年月日时分秒</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>+</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>分布式系统</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ID+</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>分布式系统编号），给前端为加密的字符串，实体类将</a:t>
+            <a:t>在较高安全性同时兼顾高并发、大数据量、主键索引、主键排序等情况下推荐做法：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>循环自增序号（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1-9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>） + 时间（new Date().getTime()）+随机4位数字+分布式系统编号</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注：当生成的主键</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为数字型且长度超过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>位时传给前端可能会造成精度损失，此时后端需要将</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -1502,65 +1498,63 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>类型转成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>类型，有个偷懒办法就是直接将实体类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Long</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
             <a:t>改为</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
             <a:t>String</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
             <a:t>即可</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>②主键唯一不重复字符串（如</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>UUID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>或</a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>年月日时分秒</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>+</a:t>
+            <a:t>，</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>分布式系统</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ID+</a:t>
+            <a:t>但是</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>分布式系统编号</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
+            <a:t>个人</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>不推荐</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -3197,7 +3191,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
